--- a/pwa_tests_times/pwatimetest.xlsx
+++ b/pwa_tests_times/pwatimetest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fast-tvguide\pwa_tests_times\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,7 +50,7 @@
     <t>open pwa with chrome open</t>
   </si>
   <si>
-    <t>secunds</t>
+    <t>seconds</t>
   </si>
 </sst>
 </file>
@@ -104,10 +104,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16:AI29"/>
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1803,145 +1803,145 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
     </row>
     <row r="17" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J17" s="3"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
     </row>
     <row r="18" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J18" s="3"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
     </row>
     <row r="19" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J19" s="3"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
     </row>
     <row r="20" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J20" s="3"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
     </row>
     <row r="21" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J21" s="3"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
     </row>
     <row r="22" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J22" s="3"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
     </row>
     <row r="23" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
     </row>
     <row r="24" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
     </row>
     <row r="25" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
     </row>
     <row r="26" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
     </row>
     <row r="27" spans="10:35" x14ac:dyDescent="0.4">
       <c r="K27" s="1" t="s">
@@ -1950,16 +1950,16 @@
       <c r="P27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
     </row>
     <row r="28" spans="10:35" x14ac:dyDescent="0.4">
       <c r="N28" s="1" t="s">
@@ -1968,28 +1968,28 @@
       <c r="S28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
     </row>
     <row r="29" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
